--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2998.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2998.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.182297508258025</v>
+        <v>1.730466365814209</v>
       </c>
       <c r="B1">
-        <v>2.444739458143042</v>
+        <v>1.818760514259338</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.98962140083313</v>
       </c>
       <c r="D1">
-        <v>2.297905803299659</v>
+        <v>2.843653917312622</v>
       </c>
       <c r="E1">
-        <v>1.201059527350497</v>
+        <v>5.152978897094727</v>
       </c>
     </row>
   </sheetData>
